--- a/PASSO_FUNDO.xlsx
+++ b/PASSO_FUNDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFA50ECC-2E03-441E-855A-5CF8EC4F8068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A06DFA61-4794-4611-92C5-C14A1E2FDCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1104,7 +1091,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1164,36 +1151,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1232,14 +1195,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1286,7 +1244,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{CB6593AF-7D4B-4F85-B371-2AD346A17918}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{8AECDB01-B6E4-4739-8D68-03DBEE16F4DA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1316,10 +1274,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{035CEC7A-30FA-4634-A1BC-8CE8DA9972A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA68C08-5D36-4591-9A9F-2D54C93535CD}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1315,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6206C022-C439-4742-BFDE-C8ACE18EBEB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24839F6-E1E6-4882-93CC-6652EEA48142}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1378,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D404DA-0EAC-4578-875C-F846FFDCA523}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF37337B-F87D-4C0B-8B5E-F0E9AC448CD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,7 +1397,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B0F7A8-7074-BB45-E756-AB6CD2B44FC2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAED31B3-D086-A757-2302-0EF9B0B63023}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1488,7 +1446,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E39A106D-2BD3-98DC-A84E-113F2F05079D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C178AD8B-3EFA-CB84-3947-046F60F1D855}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1507,7 +1465,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B43EFD0-E2AB-D261-7F40-9107E7E56371}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA7F31E7-30A7-F0C3-354A-FB9930359B54}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1538,7 +1496,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81F2D90-7FDA-E026-2815-C3842D323A40}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F0E7A24-1DA6-1D05-F319-048E55F920AD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1569,7 +1527,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12636873-DF4F-DB0F-FBAC-1CD4237EE47C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{067873CB-41FC-AE8E-91E6-0EF18E877CC8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1612,7 +1570,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD18C5CF-FA8A-4799-98C5-D8FE14F23D6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03CF3419-ACE3-4FE4-8D27-F13959885278}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1650,7 +1608,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD6F2936-1867-4AB8-BA4B-C316D4640B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4B7126-4E89-40FF-ABFC-737EAB360DCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,7 +1651,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE74082B-5B53-4E5B-B63F-3E390CEFAC7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0031665D-DCC8-43D7-880F-13591D2F33C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2006,7 +1964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E2797F-3CA6-47DC-8230-317E84C96DBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386ABBE4-F27E-4859-8C50-9D0F6137BCAC}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2018,98 +1976,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="38"/>
-    <col min="6" max="6" width="2" style="38" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="38" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="38"/>
+    <col min="1" max="5" width="12.5703125" style="35"/>
+    <col min="6" max="6" width="2" style="35" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="37"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="37"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="37"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="37"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="37"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="37"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="37"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="37"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="37"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="37"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="37"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="37"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="37"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="37"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="37"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="37"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="37"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="37"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="37"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="37"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="37"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="37"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="37"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="37"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="37"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="37"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="37"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="37"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="37"/>
+      <c r="F29" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5471,19 +5429,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5506,79 +5464,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5603,54 +5561,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="21" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5661,19 +5620,19 @@
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="24">
         <v>45078</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="25">
         <v>13817</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="26">
         <v>58675</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="26">
         <v>8883</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -5682,22 +5641,22 @@
       <c r="I2" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="27" t="s">
         <v>308</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="28" t="s">
         <v>309</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="28" t="s">
         <v>309</v>
       </c>
     </row>
@@ -5728,25 +5687,24 @@
       <c r="B1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="33">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="30">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="33">
         <v>521</v>
       </c>
-      <c r="F1" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="B2" s="36">
-        <v>521</v>
-      </c>
-      <c r="C2" s="34">
+      <c r="C2" s="31">
         <v>3.445311466737204E-2</v>
       </c>
     </row>

--- a/PASSO_FUNDO.xlsx
+++ b/PASSO_FUNDO.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A06DFA61-4794-4611-92C5-C14A1E2FDCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A261F0D9-CC30-452F-A13F-3F9B3F86E5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="DGC" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="317">
   <si>
     <t>COMARCA</t>
   </si>
@@ -965,6 +966,18 @@
   </si>
   <si>
     <t>PASSO FUNDO</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>MOT-VIG</t>
+  </si>
+  <si>
+    <t>Demora nos Atestes MOT</t>
   </si>
 </sst>
 </file>
@@ -974,7 +987,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1027,6 +1040,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1041,7 +1067,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1082,6 +1108,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4C7C3"/>
         <bgColor rgb="FFF4C7C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1154,9 +1186,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1239,12 +1271,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{8AECDB01-B6E4-4739-8D68-03DBEE16F4DA}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{E2D8F599-2EDB-41A3-A97A-00960E4E266D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1274,10 +1310,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA68C08-5D36-4591-9A9F-2D54C93535CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF6DEB3-A53A-413D-8A6B-421D9C2D1700}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1351,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24839F6-E1E6-4882-93CC-6652EEA48142}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824D7F87-05A8-4BEF-9DC3-DC7D4A6B1F56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1414,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF37337B-F87D-4C0B-8B5E-F0E9AC448CD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D63EC038-DB17-4330-A92D-C02D041CD11E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1433,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAED31B3-D086-A757-2302-0EF9B0B63023}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056D23D7-7856-9D1C-477C-934100638A3D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1446,7 +1482,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C178AD8B-3EFA-CB84-3947-046F60F1D855}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6BC30C-7FAF-1FDF-BD76-B3660B5314F2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1465,7 +1501,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA7F31E7-30A7-F0C3-354A-FB9930359B54}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E93C92-6F6A-5648-5486-F44AEF651388}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1496,7 +1532,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F0E7A24-1DA6-1D05-F319-048E55F920AD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD766BE8-7FAB-4386-874F-9D35C9AADE3E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1527,7 +1563,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{067873CB-41FC-AE8E-91E6-0EF18E877CC8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDC6EE4-922F-DE93-CA06-F30DE63B842A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1570,7 +1606,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03CF3419-ACE3-4FE4-8D27-F13959885278}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B3A38D-8C58-42E6-AFB0-EB935254D983}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1644,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4B7126-4E89-40FF-ABFC-737EAB360DCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B6887B-6DC2-49F4-9DE5-3DC92649BAB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,7 +1687,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0031665D-DCC8-43D7-880F-13591D2F33C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7BF03CB-A751-474A-8511-431370FFE6DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1964,7 +2000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386ABBE4-F27E-4859-8C50-9D0F6137BCAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EB7DBE-A4C7-4D85-A338-265E801C9B0A}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1976,98 +2012,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="35"/>
-    <col min="6" max="6" width="2" style="35" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="35"/>
+    <col min="1" max="5" width="12.5703125" style="37"/>
+    <col min="6" max="6" width="2" style="37" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="34"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="34"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="34"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="34"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="34"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="34"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="34"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="34"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="34"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="34"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="34"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="34"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="34"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="34"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="34"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="34"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="34"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="34"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="34"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="34"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="34"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="34"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="34"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="34"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="34"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="34"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="34"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="34"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="34"/>
+      <c r="F29" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5711,4 +5747,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/PASSO_FUNDO.xlsx
+++ b/PASSO_FUNDO.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A261F0D9-CC30-452F-A13F-3F9B3F86E5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF746F9D-C5EC-4B2C-8966-284074F2FA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="7" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
-    <sheet name="DGC" sheetId="7" r:id="rId8"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
+    <sheet name="DGC" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="314">
   <si>
     <t>COMARCA</t>
   </si>
@@ -957,15 +956,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>PASSO FUNDO</t>
   </si>
   <si>
     <t>TEMÁTICA</t>
@@ -1188,7 +1178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1256,21 +1246,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1280,7 +1255,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{E2D8F599-2EDB-41A3-A97A-00960E4E266D}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{093C5FA1-29BB-4E8F-89A7-C1768A09E4FC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1310,10 +1285,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF6DEB3-A53A-413D-8A6B-421D9C2D1700}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB8B418-4749-4898-AC17-2D90DA327A7F}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1326,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824D7F87-05A8-4BEF-9DC3-DC7D4A6B1F56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A4310D-EAF1-451D-84E1-7A3B6A8DA0FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1389,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D63EC038-DB17-4330-A92D-C02D041CD11E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E7E161-8DD1-423D-B601-694FF51982BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1433,7 +1408,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056D23D7-7856-9D1C-477C-934100638A3D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{851A721E-D036-97F1-899A-A8A434F573EC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1482,7 +1457,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6BC30C-7FAF-1FDF-BD76-B3660B5314F2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A3C90E-A2AB-9AED-645A-CD53F5647E1C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1501,7 +1476,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E93C92-6F6A-5648-5486-F44AEF651388}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7565902A-E392-06CC-4249-024A52801C7B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1532,7 +1507,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD766BE8-7FAB-4386-874F-9D35C9AADE3E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBED8134-62AB-CF14-B0F9-3E3FF7584F65}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1563,7 +1538,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDC6EE4-922F-DE93-CA06-F30DE63B842A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6DBF205-A93F-C8EA-CDD6-7E52B15F783D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1606,7 +1581,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B3A38D-8C58-42E6-AFB0-EB935254D983}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A193FE8-5D2B-4224-B76A-13E2539E4AC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,7 +1619,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B6887B-6DC2-49F4-9DE5-3DC92649BAB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B44D75-712F-4F24-A6CC-329E16DB2F76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,7 +1662,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7BF03CB-A751-474A-8511-431370FFE6DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60DF353D-3317-4F69-ADFF-8AC466AB5583}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2000,7 +1975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EB7DBE-A4C7-4D85-A338-265E801C9B0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8C32A0-A612-4624-8ABA-6F139AD96DC8}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2012,98 +1987,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="32"/>
+    <col min="6" max="6" width="2" style="32" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="32" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5703,54 +5678,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="E1" s="30">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="B2" s="33">
-        <v>521</v>
-      </c>
-      <c r="C2" s="31">
-        <v>3.445311466737204E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5763,25 +5690,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>313</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/PASSO_FUNDO.xlsx
+++ b/PASSO_FUNDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF746F9D-C5EC-4B2C-8966-284074F2FA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46A50247-8ADF-40AB-B9F2-296AB2806630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1255,7 +1255,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{093C5FA1-29BB-4E8F-89A7-C1768A09E4FC}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{84408E2C-5938-41E9-BBBC-9009C7A9AC8E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1285,10 +1285,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB8B418-4749-4898-AC17-2D90DA327A7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED77C0A-C3A6-4BCB-90C7-BC24955ADED3}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1326,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A4310D-EAF1-451D-84E1-7A3B6A8DA0FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7E2E50-B120-4206-A455-619485E4FF2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1389,7 +1389,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E7E161-8DD1-423D-B601-694FF51982BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB3EE63-FF94-43AE-8956-8DDBB2097BE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1408,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{851A721E-D036-97F1-899A-A8A434F573EC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F23CF44-A447-B425-31DE-C3B7F79875FC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1457,7 +1457,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A3C90E-A2AB-9AED-645A-CD53F5647E1C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D44457-60E4-2A5E-A44E-29EBC9C81D66}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1476,7 +1476,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7565902A-E392-06CC-4249-024A52801C7B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB2C6F5-28EB-21DF-82E8-AE27AAFFBD2E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1507,7 +1507,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBED8134-62AB-CF14-B0F9-3E3FF7584F65}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A177C460-FD9E-A016-7504-3B4DBC6FE791}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1538,7 +1538,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6DBF205-A93F-C8EA-CDD6-7E52B15F783D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F66991-9477-9AEF-19F5-FEB4435587C7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1581,7 +1581,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A193FE8-5D2B-4224-B76A-13E2539E4AC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F428ACAD-7757-4703-9B73-0A62FA28BE66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1619,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B44D75-712F-4F24-A6CC-329E16DB2F76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA72098-E66D-4854-95AE-3D0115F5F6F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,50 +1644,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60DF353D-3317-4F69-ADFF-8AC466AB5583}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1975,7 +1931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8C32A0-A612-4624-8ABA-6F139AD96DC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041275E8-2E84-47D6-8917-01C269FE004D}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
